--- a/gr2_ysh/213123213.xlsx
+++ b/gr2_ysh/213123213.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-07\Desktop\e-Zone\gr2_ysh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="267">
   <si>
     <r>
       <rPr>
@@ -856,10 +856,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>결제 상태</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>1인당 비용</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1118,22 +1114,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>사람별 예약날짜?</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>사람별 예약인원?</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>세미나 번호</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>밋업 번호</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>코드</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1313,14 +1293,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>회원 아이디(F)</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>예약자 리스트?</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>세미나 번호(F)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1476,6 +1448,98 @@
       </rPr>
       <t>예약</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 상태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 아이디(F)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제상태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아이디</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제상태</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>밋업코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나존코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 인원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>세미나코드</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약인원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약날짜</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>예약 시간</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2169,7 +2233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="240">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2616,6 +2680,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2664,14 +2733,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2681,6 +2762,39 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2718,75 +2832,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2814,7 +2859,31 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2853,11 +2922,7 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3127,19 +3192,19 @@
     </row>
     <row r="2" spans="1:29" ht="19.5" customHeight="1">
       <c r="A2" s="94"/>
-      <c r="B2" s="160" t="s">
+      <c r="B2" s="165" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="161"/>
-      <c r="D2" s="161"/>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161"/>
-      <c r="I2" s="161"/>
-      <c r="J2" s="161"/>
-      <c r="K2" s="161"/>
-      <c r="L2" s="162"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="167"/>
       <c r="M2" s="94"/>
       <c r="N2" s="94"/>
       <c r="O2" s="94"/>
@@ -3160,17 +3225,17 @@
     </row>
     <row r="3" spans="1:29" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="94"/>
-      <c r="B3" s="163"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="165"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="170"/>
       <c r="M3" s="94"/>
       <c r="N3" s="94"/>
       <c r="O3" s="94"/>
@@ -3286,19 +3351,19 @@
     </row>
     <row r="7" spans="1:29" ht="40.5" customHeight="1">
       <c r="A7" s="94"/>
-      <c r="B7" s="158" t="s">
+      <c r="B7" s="163" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
-      <c r="E7" s="158"/>
-      <c r="F7" s="158"/>
-      <c r="G7" s="158"/>
-      <c r="H7" s="158"/>
-      <c r="I7" s="158"/>
-      <c r="J7" s="158"/>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163"/>
+      <c r="E7" s="163"/>
+      <c r="F7" s="163"/>
+      <c r="G7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="163"/>
+      <c r="J7" s="163"/>
+      <c r="K7" s="163"/>
+      <c r="L7" s="163"/>
       <c r="M7" s="98"/>
       <c r="N7" s="94"/>
       <c r="O7" s="94"/>
@@ -3339,10 +3404,10 @@
       <c r="J8" s="134" t="s">
         <v>152</v>
       </c>
-      <c r="K8" s="170" t="s">
+      <c r="K8" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="L8" s="171"/>
+      <c r="L8" s="176"/>
       <c r="M8" s="94"/>
       <c r="N8" s="94"/>
       <c r="O8" s="94"/>
@@ -3375,10 +3440,10 @@
         <v>154</v>
       </c>
       <c r="J9" s="133"/>
-      <c r="K9" s="167" t="s">
+      <c r="K9" s="172" t="s">
         <v>153</v>
       </c>
-      <c r="L9" s="167"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="98"/>
       <c r="N9" s="94"/>
       <c r="O9" s="94"/>
@@ -3409,8 +3474,8 @@
       <c r="H10" s="105"/>
       <c r="I10" s="27"/>
       <c r="J10" s="133"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
       <c r="M10" s="98"/>
       <c r="N10" s="94"/>
       <c r="O10" s="94"/>
@@ -3441,8 +3506,8 @@
       <c r="H11" s="105"/>
       <c r="I11" s="27"/>
       <c r="J11" s="133"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
       <c r="M11" s="98"/>
       <c r="N11" s="94"/>
       <c r="O11" s="94"/>
@@ -3473,8 +3538,8 @@
       <c r="H12" s="105"/>
       <c r="I12" s="27"/>
       <c r="J12" s="133"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
       <c r="M12" s="98"/>
       <c r="N12" s="94"/>
       <c r="O12" s="94"/>
@@ -3526,19 +3591,19 @@
     </row>
     <row r="14" spans="1:29" ht="40.5" customHeight="1">
       <c r="A14" s="94"/>
-      <c r="B14" s="159" t="s">
+      <c r="B14" s="164" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="164"/>
+      <c r="H14" s="164"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="164"/>
+      <c r="K14" s="164"/>
+      <c r="L14" s="164"/>
       <c r="M14" s="98"/>
       <c r="N14" s="94"/>
       <c r="O14" s="94"/>
@@ -3570,12 +3635,12 @@
       <c r="D15" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
+      <c r="F15" s="171"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="171"/>
       <c r="I15" s="92" t="s">
         <v>94</v>
       </c>
@@ -3607,7 +3672,7 @@
       <c r="AC15" s="94"/>
     </row>
     <row r="16" spans="1:29" ht="39" customHeight="1">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="161" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="125" t="s">
@@ -3644,7 +3709,7 @@
       <c r="AC16" s="94"/>
     </row>
     <row r="17" spans="1:29" ht="39" customHeight="1">
-      <c r="A17" s="156"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="147" t="s">
         <v>140</v>
       </c>
@@ -3679,7 +3744,7 @@
       <c r="AC17" s="94"/>
     </row>
     <row r="18" spans="1:29" ht="39" customHeight="1">
-      <c r="A18" s="156"/>
+      <c r="A18" s="161"/>
       <c r="B18" s="122" t="s">
         <v>155</v>
       </c>
@@ -3714,7 +3779,7 @@
       <c r="AC18" s="94"/>
     </row>
     <row r="19" spans="1:29" ht="39" customHeight="1">
-      <c r="A19" s="156"/>
+      <c r="A19" s="161"/>
       <c r="B19" s="148" t="s">
         <v>156</v>
       </c>
@@ -3749,7 +3814,7 @@
       <c r="AC19" s="94"/>
     </row>
     <row r="20" spans="1:29" ht="39" customHeight="1">
-      <c r="A20" s="156"/>
+      <c r="A20" s="161"/>
       <c r="B20" s="119" t="s">
         <v>139</v>
       </c>
@@ -3784,7 +3849,7 @@
       <c r="AC20" s="94"/>
     </row>
     <row r="21" spans="1:29" ht="39" customHeight="1">
-      <c r="A21" s="156"/>
+      <c r="A21" s="161"/>
       <c r="B21" s="112" t="s">
         <v>138</v>
       </c>
@@ -3819,7 +3884,7 @@
       <c r="AC21" s="94"/>
     </row>
     <row r="22" spans="1:29" ht="39" customHeight="1">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="162" t="s">
         <v>137</v>
       </c>
       <c r="B22" s="135" t="s">
@@ -3835,7 +3900,7 @@
       <c r="H22" s="138"/>
       <c r="I22" s="139"/>
       <c r="J22" s="139"/>
-      <c r="K22" s="168"/>
+      <c r="K22" s="173"/>
       <c r="L22" s="140"/>
       <c r="M22" s="94"/>
       <c r="N22" s="94"/>
@@ -3856,7 +3921,7 @@
       <c r="AC22" s="94"/>
     </row>
     <row r="23" spans="1:29" ht="39" customHeight="1">
-      <c r="A23" s="156"/>
+      <c r="A23" s="161"/>
       <c r="B23" s="104" t="s">
         <v>136</v>
       </c>
@@ -3870,7 +3935,7 @@
       <c r="H23" s="108"/>
       <c r="I23" s="27"/>
       <c r="J23" s="27"/>
-      <c r="K23" s="168"/>
+      <c r="K23" s="173"/>
       <c r="L23" s="110"/>
       <c r="M23" s="94"/>
       <c r="N23" s="94"/>
@@ -3891,7 +3956,7 @@
       <c r="AC23" s="94"/>
     </row>
     <row r="24" spans="1:29" ht="39" customHeight="1">
-      <c r="A24" s="156"/>
+      <c r="A24" s="161"/>
       <c r="B24" s="109" t="s">
         <v>135</v>
       </c>
@@ -3905,7 +3970,7 @@
       <c r="H24" s="108"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
-      <c r="K24" s="168"/>
+      <c r="K24" s="173"/>
       <c r="L24" s="105"/>
       <c r="M24" s="94"/>
       <c r="N24" s="94"/>
@@ -3926,7 +3991,7 @@
       <c r="AC24" s="94"/>
     </row>
     <row r="25" spans="1:29" ht="39" customHeight="1">
-      <c r="A25" s="156"/>
+      <c r="A25" s="161"/>
       <c r="B25" s="112" t="s">
         <v>134</v>
       </c>
@@ -3940,7 +4005,7 @@
       <c r="H25" s="105"/>
       <c r="I25" s="17"/>
       <c r="J25" s="24"/>
-      <c r="K25" s="168"/>
+      <c r="K25" s="173"/>
       <c r="L25" s="105"/>
       <c r="M25" s="94"/>
       <c r="N25" s="94"/>
@@ -3961,7 +4026,7 @@
       <c r="AC25" s="94"/>
     </row>
     <row r="26" spans="1:29" ht="39" customHeight="1">
-      <c r="A26" s="156"/>
+      <c r="A26" s="161"/>
       <c r="B26" s="149" t="s">
         <v>157</v>
       </c>
@@ -3975,7 +4040,7 @@
       <c r="H26" s="100"/>
       <c r="I26" s="17"/>
       <c r="J26" s="24"/>
-      <c r="K26" s="168"/>
+      <c r="K26" s="173"/>
       <c r="L26" s="101"/>
       <c r="M26" s="94"/>
       <c r="N26" s="94"/>
@@ -3996,7 +4061,7 @@
       <c r="AC26" s="94"/>
     </row>
     <row r="27" spans="1:29" ht="39" customHeight="1">
-      <c r="A27" s="156"/>
+      <c r="A27" s="161"/>
       <c r="B27" s="103" t="s">
         <v>64</v>
       </c>
@@ -4010,7 +4075,7 @@
       <c r="H27" s="100"/>
       <c r="I27" s="32"/>
       <c r="J27" s="14"/>
-      <c r="K27" s="169"/>
+      <c r="K27" s="174"/>
       <c r="L27" s="99"/>
       <c r="M27" s="94"/>
       <c r="N27" s="94"/>
@@ -11019,23 +11084,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="177" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -11059,21 +11124,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -11229,12 +11294,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="200" t="s">
+      <c r="F7" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
       <c r="J7" s="45" t="s">
         <v>90</v>
       </c>
@@ -11284,22 +11349,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A8" s="201"/>
-      <c r="B8" s="175" t="s">
+      <c r="A8" s="182"/>
+      <c r="B8" s="184" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="184" t="s">
         <v>116</v>
       </c>
-      <c r="D8" s="181"/>
-      <c r="E8" s="178" t="s">
+      <c r="D8" s="201"/>
+      <c r="E8" s="198" t="s">
         <v>57</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="20"/>
       <c r="I8" s="16"/>
-      <c r="J8" s="184" t="s">
+      <c r="J8" s="204" t="s">
         <v>117</v>
       </c>
       <c r="K8" s="65">
@@ -11334,16 +11399,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="176"/>
-      <c r="C9" s="176"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="179"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="185"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="199"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="20"/>
       <c r="I9" s="16"/>
-      <c r="J9" s="185"/>
+      <c r="J9" s="205"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
@@ -11376,16 +11441,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="180"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="185"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="200"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="186"/>
+      <c r="J10" s="206"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
@@ -11422,20 +11487,20 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A11" s="190"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="175" t="s">
+      <c r="A11" s="183"/>
+      <c r="B11" s="185"/>
+      <c r="C11" s="184" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="181"/>
-      <c r="E11" s="178" t="s">
+      <c r="D11" s="201"/>
+      <c r="E11" s="198" t="s">
         <v>81</v>
       </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="30"/>
-      <c r="J11" s="184" t="s">
+      <c r="J11" s="204" t="s">
         <v>118</v>
       </c>
       <c r="K11" s="65">
@@ -11470,16 +11535,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A12" s="190"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="182"/>
-      <c r="E12" s="179"/>
+      <c r="A12" s="183"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="199"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="30"/>
-      <c r="J12" s="185"/>
+      <c r="J12" s="205"/>
       <c r="K12" s="65">
         <v>2</v>
       </c>
@@ -11512,16 +11577,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A13" s="190"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="180"/>
+      <c r="A13" s="183"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="186"/>
+      <c r="D13" s="203"/>
+      <c r="E13" s="200"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="30"/>
-      <c r="J13" s="186"/>
+      <c r="J13" s="206"/>
       <c r="K13" s="65">
         <v>3</v>
       </c>
@@ -11552,20 +11617,20 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A14" s="190"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="175" t="s">
+      <c r="A14" s="183"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="184" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="181"/>
-      <c r="E14" s="178" t="s">
+      <c r="D14" s="201"/>
+      <c r="E14" s="198" t="s">
         <v>43</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
-      <c r="J14" s="189" t="s">
+      <c r="J14" s="209" t="s">
         <v>119</v>
       </c>
       <c r="K14" s="65">
@@ -11600,16 +11665,16 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A15" s="190"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="179"/>
+      <c r="A15" s="183"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="199"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="30"/>
-      <c r="J15" s="185"/>
+      <c r="J15" s="205"/>
       <c r="K15" s="65">
         <v>2</v>
       </c>
@@ -11642,16 +11707,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A16" s="190"/>
-      <c r="B16" s="177"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="188"/>
+      <c r="A16" s="183"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="207"/>
+      <c r="E16" s="208"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="30"/>
-      <c r="J16" s="186"/>
+      <c r="J16" s="206"/>
       <c r="K16" s="65">
         <v>3</v>
       </c>
@@ -11688,22 +11753,22 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="175" t="s">
+      <c r="A17" s="182"/>
+      <c r="B17" s="184" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="184" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="190" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="183" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="51"/>
-      <c r="J17" s="202" t="s">
+      <c r="J17" s="187" t="s">
         <v>120</v>
       </c>
       <c r="K17" s="65">
@@ -11736,16 +11801,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A18" s="201"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="194"/>
-      <c r="E18" s="191"/>
+      <c r="A18" s="182"/>
+      <c r="B18" s="185"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="190"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="51"/>
-      <c r="J18" s="203"/>
+      <c r="J18" s="188"/>
       <c r="K18" s="65">
         <v>2</v>
       </c>
@@ -11776,16 +11841,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A19" s="201"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="176"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="191"/>
+      <c r="A19" s="182"/>
+      <c r="B19" s="185"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="190"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="203"/>
+      <c r="J19" s="188"/>
       <c r="K19" s="65">
         <v>3</v>
       </c>
@@ -11816,16 +11881,16 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A20" s="201"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="194"/>
-      <c r="E20" s="191"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="190"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="51"/>
-      <c r="J20" s="203"/>
+      <c r="J20" s="188"/>
       <c r="K20" s="65">
         <v>4</v>
       </c>
@@ -11856,16 +11921,16 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A21" s="201"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="176"/>
-      <c r="D21" s="194"/>
-      <c r="E21" s="191"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="192"/>
+      <c r="E21" s="190"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="51"/>
-      <c r="J21" s="203"/>
+      <c r="J21" s="188"/>
       <c r="K21" s="65">
         <v>5</v>
       </c>
@@ -11896,16 +11961,16 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A22" s="201"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="177"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="192"/>
+      <c r="A22" s="182"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="194"/>
+      <c r="E22" s="193"/>
       <c r="F22" s="27"/>
       <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="52"/>
-      <c r="J22" s="204"/>
+      <c r="J22" s="189"/>
       <c r="K22" s="66">
         <v>6</v>
       </c>
@@ -11936,20 +12001,20 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A23" s="201"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="175" t="s">
+      <c r="A23" s="182"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="184" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="190" t="s">
+      <c r="D23" s="191"/>
+      <c r="E23" s="183" t="s">
         <v>81</v>
       </c>
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="52"/>
-      <c r="J23" s="202" t="s">
+      <c r="J23" s="187" t="s">
         <v>121</v>
       </c>
       <c r="K23" s="66">
@@ -11982,16 +12047,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A24" s="201"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="194"/>
-      <c r="E24" s="191"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="185"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="190"/>
       <c r="F24" s="27"/>
       <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="52"/>
-      <c r="J24" s="203"/>
+      <c r="J24" s="188"/>
       <c r="K24" s="66">
         <v>2</v>
       </c>
@@ -12022,16 +12087,16 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A25" s="201"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="176"/>
-      <c r="D25" s="194"/>
-      <c r="E25" s="191"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="185"/>
+      <c r="D25" s="192"/>
+      <c r="E25" s="190"/>
       <c r="F25" s="27"/>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="52"/>
-      <c r="J25" s="203"/>
+      <c r="J25" s="188"/>
       <c r="K25" s="66">
         <v>3</v>
       </c>
@@ -12062,16 +12127,16 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A26" s="201"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="194"/>
-      <c r="E26" s="191"/>
+      <c r="A26" s="182"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="27"/>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="52"/>
-      <c r="J26" s="203"/>
+      <c r="J26" s="188"/>
       <c r="K26" s="66">
         <v>4</v>
       </c>
@@ -12102,16 +12167,16 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A27" s="201"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="194"/>
-      <c r="E27" s="191"/>
+      <c r="A27" s="182"/>
+      <c r="B27" s="185"/>
+      <c r="C27" s="185"/>
+      <c r="D27" s="192"/>
+      <c r="E27" s="190"/>
       <c r="F27" s="27"/>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="52"/>
-      <c r="J27" s="203"/>
+      <c r="J27" s="188"/>
       <c r="K27" s="66">
         <v>5</v>
       </c>
@@ -12142,16 +12207,16 @@
       <c r="AJ27" s="1"/>
     </row>
     <row r="28" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A28" s="201"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="194"/>
-      <c r="E28" s="191"/>
+      <c r="A28" s="182"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="192"/>
+      <c r="E28" s="190"/>
       <c r="F28" s="80"/>
       <c r="G28" s="80"/>
       <c r="H28" s="80"/>
       <c r="I28" s="81"/>
-      <c r="J28" s="203"/>
+      <c r="J28" s="188"/>
       <c r="K28" s="66">
         <v>6</v>
       </c>
@@ -12182,20 +12247,20 @@
       <c r="AJ28" s="1"/>
     </row>
     <row r="29" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A29" s="201"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="175" t="s">
+      <c r="A29" s="182"/>
+      <c r="B29" s="185"/>
+      <c r="C29" s="184" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="190" t="s">
+      <c r="D29" s="191"/>
+      <c r="E29" s="183" t="s">
         <v>58</v>
       </c>
       <c r="F29" s="27"/>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="52"/>
-      <c r="J29" s="202" t="s">
+      <c r="J29" s="187" t="s">
         <v>122</v>
       </c>
       <c r="K29" s="66">
@@ -12228,16 +12293,16 @@
       <c r="AJ29" s="1"/>
     </row>
     <row r="30" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A30" s="201"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="194"/>
-      <c r="E30" s="191"/>
+      <c r="A30" s="182"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="190"/>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="52"/>
-      <c r="J30" s="203"/>
+      <c r="J30" s="188"/>
       <c r="K30" s="66">
         <v>2</v>
       </c>
@@ -12268,16 +12333,16 @@
       <c r="AJ30" s="1"/>
     </row>
     <row r="31" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A31" s="201"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="176"/>
-      <c r="D31" s="194"/>
-      <c r="E31" s="191"/>
+      <c r="A31" s="182"/>
+      <c r="B31" s="185"/>
+      <c r="C31" s="185"/>
+      <c r="D31" s="192"/>
+      <c r="E31" s="190"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="52"/>
-      <c r="J31" s="203"/>
+      <c r="J31" s="188"/>
       <c r="K31" s="66">
         <v>3</v>
       </c>
@@ -12308,16 +12373,16 @@
       <c r="AJ31" s="1"/>
     </row>
     <row r="32" spans="1:36" ht="16.5" customHeight="1">
-      <c r="A32" s="201"/>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="192"/>
+      <c r="A32" s="182"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="194"/>
+      <c r="E32" s="193"/>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="52"/>
-      <c r="J32" s="204"/>
+      <c r="J32" s="189"/>
       <c r="K32" s="66">
         <v>4</v>
       </c>
@@ -12349,7 +12414,7 @@
     </row>
     <row r="33" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="172" t="s">
+      <c r="B33" s="195" t="s">
         <v>59</v>
       </c>
       <c r="C33" s="40" t="s">
@@ -12391,7 +12456,7 @@
     </row>
     <row r="34" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="173"/>
+      <c r="B34" s="196"/>
       <c r="C34" s="40" t="s">
         <v>72</v>
       </c>
@@ -12431,7 +12496,7 @@
     </row>
     <row r="35" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="173"/>
+      <c r="B35" s="196"/>
       <c r="C35" s="40" t="s">
         <v>61</v>
       </c>
@@ -12471,7 +12536,7 @@
     </row>
     <row r="36" spans="1:36" ht="16.149999999999999" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="174"/>
+      <c r="B36" s="197"/>
       <c r="C36" s="40" t="s">
         <v>74</v>
       </c>
@@ -20669,21 +20734,6 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="31">
-    <mergeCell ref="B2:P3"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A32"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B17:B32"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="J29:J32"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="C29:C32"/>
     <mergeCell ref="B33:B36"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="E8:E10"/>
@@ -20700,6 +20750,21 @@
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="E17:E22"/>
     <mergeCell ref="D17:D22"/>
+    <mergeCell ref="B2:P3"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A32"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B17:B32"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="C29:C32"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -20775,23 +20840,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="177" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -20815,21 +20880,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -20985,12 +21050,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="200" t="s">
+      <c r="F7" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -21040,22 +21105,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="182" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="213"/>
-      <c r="C8" s="214" t="s">
+      <c r="B8" s="210"/>
+      <c r="C8" s="211" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="219"/>
-      <c r="E8" s="210" t="s">
+      <c r="D8" s="216"/>
+      <c r="E8" s="219" t="s">
         <v>47</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="184" t="s">
+      <c r="J8" s="204" t="s">
         <v>112</v>
       </c>
       <c r="K8" s="65">
@@ -21090,16 +21155,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="213"/>
-      <c r="C9" s="215"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="211"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="212"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="220"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="217"/>
+      <c r="J9" s="214"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
@@ -21130,16 +21195,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="213"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="211"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="212"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="220"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="16"/>
-      <c r="J10" s="217"/>
+      <c r="J10" s="214"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
@@ -21176,16 +21241,16 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A11" s="201"/>
-      <c r="B11" s="213"/>
-      <c r="C11" s="215"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="211"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="212"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="220"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="16"/>
-      <c r="J11" s="217"/>
+      <c r="J11" s="214"/>
       <c r="K11" s="65">
         <v>4</v>
       </c>
@@ -21216,16 +21281,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A12" s="201"/>
-      <c r="B12" s="213"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="220"/>
-      <c r="E12" s="211"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="212"/>
+      <c r="D12" s="217"/>
+      <c r="E12" s="220"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="16"/>
-      <c r="J12" s="217"/>
+      <c r="J12" s="214"/>
       <c r="K12" s="65">
         <v>5</v>
       </c>
@@ -21256,16 +21321,16 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A13" s="201"/>
-      <c r="B13" s="213"/>
-      <c r="C13" s="215"/>
-      <c r="D13" s="221"/>
-      <c r="E13" s="212"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="212"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="221"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="218"/>
+      <c r="J13" s="215"/>
       <c r="K13" s="65">
         <v>6</v>
       </c>
@@ -21296,9 +21361,9 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="26.25" customHeight="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="213"/>
-      <c r="C14" s="216"/>
+      <c r="A14" s="182"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="213"/>
       <c r="D14" s="34" t="s">
         <v>110</v>
       </c>
@@ -21342,20 +21407,20 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A15" s="201"/>
-      <c r="B15" s="213"/>
-      <c r="C15" s="214" t="s">
+      <c r="A15" s="182"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="211" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="222"/>
-      <c r="E15" s="210" t="s">
+      <c r="E15" s="219" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="16"/>
-      <c r="J15" s="189" t="s">
+      <c r="J15" s="209" t="s">
         <v>115</v>
       </c>
       <c r="K15" s="65">
@@ -21388,16 +21453,16 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A16" s="201"/>
-      <c r="B16" s="213"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="220"/>
-      <c r="E16" s="211"/>
+      <c r="A16" s="182"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="212"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="220"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="16"/>
-      <c r="J16" s="185"/>
+      <c r="J16" s="205"/>
       <c r="K16" s="65">
         <v>2</v>
       </c>
@@ -21428,16 +21493,16 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="213"/>
-      <c r="C17" s="215"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="211"/>
+      <c r="A17" s="182"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="220"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="16"/>
-      <c r="J17" s="185"/>
+      <c r="J17" s="205"/>
       <c r="K17" s="65">
         <v>3</v>
       </c>
@@ -21468,16 +21533,16 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A18" s="201"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="220"/>
-      <c r="E18" s="211"/>
+      <c r="A18" s="182"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="220"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="16"/>
-      <c r="J18" s="185"/>
+      <c r="J18" s="205"/>
       <c r="K18" s="65">
         <v>4</v>
       </c>
@@ -21508,16 +21573,16 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A19" s="201"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="212"/>
+      <c r="A19" s="182"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="221"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="16"/>
-      <c r="J19" s="186"/>
+      <c r="J19" s="206"/>
       <c r="K19" s="65">
         <v>5</v>
       </c>
@@ -21554,8 +21619,8 @@
       <c r="AJ19" s="1"/>
     </row>
     <row r="20" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A20" s="201"/>
-      <c r="B20" s="213"/>
+      <c r="A20" s="182"/>
+      <c r="B20" s="210"/>
       <c r="C20" s="37" t="s">
         <v>76</v>
       </c>
@@ -21596,8 +21661,8 @@
       <c r="AJ20" s="1"/>
     </row>
     <row r="21" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A21" s="201"/>
-      <c r="B21" s="205"/>
+      <c r="A21" s="182"/>
+      <c r="B21" s="223"/>
       <c r="C21" s="50" t="s">
         <v>69</v>
       </c>
@@ -21638,20 +21703,20 @@
       <c r="AJ21" s="1"/>
     </row>
     <row r="22" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A22" s="201"/>
-      <c r="B22" s="205"/>
-      <c r="C22" s="207" t="s">
+      <c r="A22" s="182"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="225" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="210" t="s">
+      <c r="D22" s="201"/>
+      <c r="E22" s="219" t="s">
         <v>47</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="16"/>
-      <c r="J22" s="184" t="s">
+      <c r="J22" s="204" t="s">
         <v>114</v>
       </c>
       <c r="K22" s="65">
@@ -21686,16 +21751,16 @@
       <c r="AJ22" s="1"/>
     </row>
     <row r="23" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A23" s="201"/>
-      <c r="B23" s="205"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="182"/>
-      <c r="E23" s="211"/>
+      <c r="A23" s="182"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="226"/>
+      <c r="D23" s="202"/>
+      <c r="E23" s="220"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="16"/>
-      <c r="J23" s="185"/>
+      <c r="J23" s="205"/>
       <c r="K23" s="65">
         <v>2</v>
       </c>
@@ -21728,16 +21793,16 @@
       <c r="AJ23" s="1"/>
     </row>
     <row r="24" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A24" s="201"/>
-      <c r="B24" s="205"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="183"/>
-      <c r="E24" s="212"/>
+      <c r="A24" s="182"/>
+      <c r="B24" s="223"/>
+      <c r="C24" s="227"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="221"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="16"/>
-      <c r="J24" s="186"/>
+      <c r="J24" s="206"/>
       <c r="K24" s="65">
         <v>3</v>
       </c>
@@ -21770,8 +21835,8 @@
       <c r="AJ24" s="1"/>
     </row>
     <row r="25" spans="1:36" ht="27" customHeight="1">
-      <c r="A25" s="201"/>
-      <c r="B25" s="206"/>
+      <c r="A25" s="182"/>
+      <c r="B25" s="224"/>
       <c r="C25" s="49" t="s">
         <v>75</v>
       </c>
@@ -21818,7 +21883,7 @@
       <c r="AJ25" s="1"/>
     </row>
     <row r="26" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A26" s="201" t="s">
+      <c r="A26" s="182" t="s">
         <v>35</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -21864,7 +21929,7 @@
       <c r="AJ26" s="1"/>
     </row>
     <row r="27" spans="1:36" ht="19.5" customHeight="1">
-      <c r="A27" s="201"/>
+      <c r="A27" s="182"/>
       <c r="B27" s="50"/>
       <c r="C27" s="49" t="s">
         <v>85</v>
@@ -30214,6 +30279,11 @@
     <filterColumn colId="8" hiddenButton="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="18">
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="D22:D24"/>
+    <mergeCell ref="E22:E24"/>
     <mergeCell ref="B2:P3"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="A8:A25"/>
@@ -30227,11 +30297,6 @@
     <mergeCell ref="D15:D19"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="J15:J19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="E22:E24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -30307,23 +30372,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="177" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -30347,21 +30412,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -30517,12 +30582,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="200" t="s">
+      <c r="F7" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -30572,8 +30637,8 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A8" s="201"/>
-      <c r="B8" s="223" t="s">
+      <c r="A8" s="182"/>
+      <c r="B8" s="228" t="s">
         <v>88</v>
       </c>
       <c r="C8" s="47" t="s">
@@ -30622,8 +30687,8 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="223"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="228"/>
       <c r="C9" s="37" t="s">
         <v>63</v>
       </c>
@@ -30670,8 +30735,8 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="223"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="228"/>
       <c r="C10" s="37" t="s">
         <v>48</v>
       </c>
@@ -30718,8 +30783,8 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A11" s="201"/>
-      <c r="B11" s="223"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="228"/>
       <c r="C11" s="37" t="s">
         <v>49</v>
       </c>
@@ -30766,8 +30831,8 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A12" s="201"/>
-      <c r="B12" s="223"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="228"/>
       <c r="C12" s="37" t="s">
         <v>76</v>
       </c>
@@ -30808,8 +30873,8 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A13" s="201"/>
-      <c r="B13" s="223"/>
+      <c r="A13" s="182"/>
+      <c r="B13" s="228"/>
       <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
@@ -39281,23 +39346,23 @@
     </row>
     <row r="2" spans="1:36" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="196" t="s">
+      <c r="B2" s="177" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
       <c r="Q2" s="67"/>
       <c r="R2" s="68"/>
       <c r="S2" s="1"/>
@@ -39321,21 +39386,21 @@
     </row>
     <row r="3" spans="1:36" ht="19.5" customHeight="1" thickBot="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="199"/>
-      <c r="F3" s="199"/>
-      <c r="G3" s="199"/>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
-      <c r="K3" s="199"/>
-      <c r="L3" s="199"/>
-      <c r="M3" s="199"/>
-      <c r="N3" s="199"/>
-      <c r="O3" s="199"/>
-      <c r="P3" s="199"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="180"/>
+      <c r="I3" s="180"/>
+      <c r="J3" s="180"/>
+      <c r="K3" s="180"/>
+      <c r="L3" s="180"/>
+      <c r="M3" s="180"/>
+      <c r="N3" s="180"/>
+      <c r="O3" s="180"/>
+      <c r="P3" s="180"/>
       <c r="Q3" s="69"/>
       <c r="R3" s="70"/>
       <c r="S3" s="1"/>
@@ -39491,12 +39556,12 @@
       <c r="E7" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="200" t="s">
+      <c r="F7" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="200"/>
-      <c r="H7" s="200"/>
-      <c r="I7" s="200"/>
+      <c r="G7" s="181"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181"/>
       <c r="J7" s="46" t="s">
         <v>90</v>
       </c>
@@ -39546,22 +39611,22 @@
       <c r="AJ7" s="1"/>
     </row>
     <row r="8" spans="1:36" ht="33" customHeight="1">
-      <c r="A8" s="201" t="s">
+      <c r="A8" s="182" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="231" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="227"/>
-      <c r="D8" s="219"/>
-      <c r="E8" s="232" t="s">
+      <c r="C8" s="232"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="237" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="184" t="s">
+      <c r="J8" s="204" t="s">
         <v>91</v>
       </c>
       <c r="K8" s="65">
@@ -39602,16 +39667,16 @@
       <c r="AJ8" s="1"/>
     </row>
     <row r="9" spans="1:36" ht="33" customHeight="1">
-      <c r="A9" s="201"/>
-      <c r="B9" s="228"/>
-      <c r="C9" s="229"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="233"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="217"/>
+      <c r="E9" s="238"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="185"/>
+      <c r="J9" s="205"/>
       <c r="K9" s="65">
         <v>2</v>
       </c>
@@ -39644,16 +39709,16 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="1:36" ht="33" customHeight="1">
-      <c r="A10" s="201"/>
-      <c r="B10" s="228"/>
-      <c r="C10" s="229"/>
-      <c r="D10" s="220"/>
-      <c r="E10" s="233"/>
+      <c r="A10" s="182"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="234"/>
+      <c r="D10" s="217"/>
+      <c r="E10" s="238"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="185"/>
+      <c r="J10" s="205"/>
       <c r="K10" s="65">
         <v>3</v>
       </c>
@@ -39686,16 +39751,16 @@
       <c r="AJ10" s="1"/>
     </row>
     <row r="11" spans="1:36" ht="33" customHeight="1">
-      <c r="A11" s="201"/>
-      <c r="B11" s="228"/>
-      <c r="C11" s="229"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="233"/>
+      <c r="A11" s="182"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="234"/>
+      <c r="D11" s="217"/>
+      <c r="E11" s="238"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="185"/>
+      <c r="J11" s="205"/>
       <c r="K11" s="65">
         <v>4</v>
       </c>
@@ -39728,16 +39793,16 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="1:36" ht="33" customHeight="1">
-      <c r="A12" s="201"/>
-      <c r="B12" s="230"/>
-      <c r="C12" s="231"/>
-      <c r="D12" s="221"/>
-      <c r="E12" s="234"/>
+      <c r="A12" s="182"/>
+      <c r="B12" s="235"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="239"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="186"/>
+      <c r="J12" s="206"/>
       <c r="K12" s="65">
         <v>5</v>
       </c>
@@ -39768,7 +39833,7 @@
       <c r="AJ12" s="1"/>
     </row>
     <row r="13" spans="1:36" ht="33" customHeight="1">
-      <c r="A13" s="201"/>
+      <c r="A13" s="182"/>
       <c r="B13" s="49" t="s">
         <v>15</v>
       </c>
@@ -39824,8 +39889,8 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="1:36" ht="33" customHeight="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="225" t="s">
+      <c r="A14" s="182"/>
+      <c r="B14" s="230" t="s">
         <v>87</v>
       </c>
       <c r="C14" s="50" t="s">
@@ -39880,8 +39945,8 @@
       <c r="AJ14" s="1"/>
     </row>
     <row r="15" spans="1:36" ht="33" customHeight="1">
-      <c r="A15" s="201"/>
-      <c r="B15" s="205"/>
+      <c r="A15" s="182"/>
+      <c r="B15" s="223"/>
       <c r="C15" s="50" t="s">
         <v>99</v>
       </c>
@@ -39928,7 +39993,7 @@
       <c r="AJ15" s="1"/>
     </row>
     <row r="16" spans="1:36" ht="33" customHeight="1">
-      <c r="A16" s="201"/>
+      <c r="A16" s="182"/>
       <c r="B16" s="49" t="s">
         <v>38</v>
       </c>
@@ -39980,7 +40045,7 @@
       <c r="AJ16" s="1"/>
     </row>
     <row r="17" spans="1:36" ht="33" customHeight="1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="182"/>
       <c r="B17" s="50" t="s">
         <v>40</v>
       </c>
@@ -40032,8 +40097,8 @@
       <c r="AJ17" s="1"/>
     </row>
     <row r="18" spans="1:36" ht="33" customHeight="1">
-      <c r="A18" s="201"/>
-      <c r="B18" s="224" t="s">
+      <c r="A18" s="182"/>
+      <c r="B18" s="229" t="s">
         <v>89</v>
       </c>
       <c r="C18" s="49" t="s">
@@ -40080,8 +40145,8 @@
       <c r="AJ18" s="1"/>
     </row>
     <row r="19" spans="1:36" ht="33" customHeight="1">
-      <c r="A19" s="201"/>
-      <c r="B19" s="224"/>
+      <c r="A19" s="182"/>
+      <c r="B19" s="229"/>
       <c r="C19" s="49" t="s">
         <v>108</v>
       </c>
@@ -48453,10 +48518,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K28"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -48470,14 +48535,10 @@
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11">
-      <c r="F2" s="239"/>
-      <c r="K2" s="239"/>
-    </row>
-    <row r="3" spans="2:11" s="155" customFormat="1">
+    <row r="3" spans="2:15" s="155" customFormat="1">
       <c r="B3" s="154" t="s">
         <v>160</v>
       </c>
@@ -48490,369 +48551,402 @@
       <c r="E3" s="155" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="155" t="s">
+      <c r="G3" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="H3" s="154" t="s">
+        <v>244</v>
+      </c>
+      <c r="I3" s="155" t="s">
+        <v>183</v>
+      </c>
+      <c r="J3" s="154" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15">
+      <c r="B4" s="156" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="156" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="156" t="s">
+        <v>173</v>
+      </c>
+      <c r="E4" s="158" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="156" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="156" t="s">
+        <v>184</v>
+      </c>
+      <c r="J4" s="156" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="158" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="156" t="s">
+        <v>174</v>
+      </c>
+      <c r="E5" s="156" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="H5" s="156" t="s">
+        <v>179</v>
+      </c>
+      <c r="I5" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="156" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="156" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="157"/>
+      <c r="D6" s="159" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" s="156" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="158" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="156" t="s">
+        <v>180</v>
+      </c>
+      <c r="I6" s="158" t="s">
+        <v>245</v>
+      </c>
+      <c r="J6" s="156" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="156" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="156" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="157"/>
+      <c r="E7" s="156" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="156" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="156" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="156" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="156" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="157"/>
+      <c r="D8" s="156" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="156" t="s">
+        <v>238</v>
+      </c>
+      <c r="H8" s="156" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="156" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="156" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="157"/>
+      <c r="E9" s="159" t="s">
+        <v>239</v>
+      </c>
+      <c r="H9" s="157"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="156" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="156" t="s">
+        <v>232</v>
+      </c>
+      <c r="D10" s="157"/>
+      <c r="H10" s="153"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="156" t="s">
+        <v>231</v>
+      </c>
+      <c r="D11" s="156" t="s">
+        <v>176</v>
+      </c>
+      <c r="H11" s="153"/>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="156" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="159" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="K12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="O12" s="160"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="157"/>
+      <c r="D13" s="156" t="s">
+        <v>211</v>
+      </c>
+      <c r="K13" s="155" t="s">
         <v>175</v>
       </c>
-      <c r="G3" s="155" t="s">
-        <v>178</v>
-      </c>
-      <c r="H3" s="154" t="s">
+      <c r="M13" s="155" t="s">
+        <v>240</v>
+      </c>
+      <c r="O13" s="155" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="157"/>
+      <c r="D14" s="156" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="156" t="s">
         <v>251</v>
       </c>
-      <c r="I3" s="155" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="154" t="s">
-        <v>187</v>
-      </c>
-      <c r="K3" s="155" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="235" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="235" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" s="235" t="s">
-        <v>173</v>
-      </c>
-      <c r="E4" s="237" t="s">
-        <v>242</v>
-      </c>
-      <c r="F4" s="235" t="s">
-        <v>176</v>
-      </c>
-      <c r="G4" s="235" t="s">
+      <c r="M14" s="153" t="s">
+        <v>253</v>
+      </c>
+      <c r="O14" s="153" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="157"/>
+      <c r="D15" s="156" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="156" t="s">
+        <v>252</v>
+      </c>
+      <c r="M15" s="240" t="s">
+        <v>254</v>
+      </c>
+      <c r="O15" s="153" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="157"/>
+      <c r="D16" s="156" t="s">
+        <v>224</v>
+      </c>
+      <c r="K16" s="153" t="s">
+        <v>258</v>
+      </c>
+      <c r="M16" s="153" t="s">
+        <v>258</v>
+      </c>
+      <c r="O16" s="153" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="157"/>
+      <c r="D17" s="153"/>
+      <c r="K17" s="156" t="s">
+        <v>261</v>
+      </c>
+      <c r="M17" s="153" t="s">
+        <v>260</v>
+      </c>
+      <c r="O17" s="153" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="157"/>
+      <c r="D18" s="153"/>
+      <c r="K18" s="156" t="s">
+        <v>262</v>
+      </c>
+      <c r="M18" s="153" t="s">
+        <v>265</v>
+      </c>
+      <c r="O18" s="153" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="K19" s="156"/>
+      <c r="M19" s="153" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="B20" s="154" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="154" t="s">
+        <v>195</v>
+      </c>
+      <c r="D20" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" s="155" t="s">
         <v>248</v>
       </c>
-      <c r="H4" s="235" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="235" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="235" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="238" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" s="237" t="s">
-        <v>235</v>
-      </c>
-      <c r="D5" s="235" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" s="235" t="s">
-        <v>210</v>
-      </c>
-      <c r="F5" s="235" t="s">
-        <v>246</v>
-      </c>
-      <c r="G5" s="235" t="s">
-        <v>179</v>
-      </c>
-      <c r="H5" s="235" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" s="235" t="s">
-        <v>186</v>
-      </c>
-      <c r="J5" s="235" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="B6" s="235" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="236"/>
-      <c r="D6" s="238" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="235" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="236"/>
-      <c r="G6" s="237" t="s">
+      <c r="F20" s="155" t="s">
         <v>249</v>
       </c>
-      <c r="H6" s="235" t="s">
-        <v>181</v>
-      </c>
-      <c r="I6" s="237" t="s">
-        <v>252</v>
-      </c>
-      <c r="J6" s="235" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="235" t="s">
-        <v>164</v>
-      </c>
-      <c r="C7" s="235" t="s">
-        <v>209</v>
-      </c>
-      <c r="D7" s="236"/>
-      <c r="E7" s="235" t="s">
-        <v>211</v>
-      </c>
-      <c r="F7" s="235" t="s">
+      <c r="G20" s="154" t="s">
+        <v>221</v>
+      </c>
+      <c r="K20" s="153" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="156" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="156" t="s">
+        <v>196</v>
+      </c>
+      <c r="D21" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="E21" s="156" t="s">
+        <v>214</v>
+      </c>
+      <c r="F21" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="G21" s="156" t="s">
+        <v>215</v>
+      </c>
+      <c r="K21" s="153"/>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="156" t="s">
+        <v>193</v>
+      </c>
+      <c r="C22" s="156" t="s">
+        <v>197</v>
+      </c>
+      <c r="D22" s="156" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="156" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" s="156" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" s="153"/>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="156" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="156" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="156" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="156" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" s="156" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="156" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" s="156"/>
+    </row>
+    <row r="24" spans="2:15">
+      <c r="C24" s="153"/>
+      <c r="D24" s="156" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="156" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="156" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" s="156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
+      <c r="C25" s="156" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="156" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="156" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="E26" s="156" t="s">
+        <v>206</v>
+      </c>
+      <c r="F26" s="156" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="E27" s="156" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="E28" s="156" t="s">
         <v>226</v>
-      </c>
-      <c r="G7" s="235" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="235" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="235" t="s">
-        <v>253</v>
-      </c>
-      <c r="J7" s="235" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="235" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="236"/>
-      <c r="D8" s="235" t="s">
-        <v>241</v>
-      </c>
-      <c r="E8" s="235" t="s">
-        <v>243</v>
-      </c>
-      <c r="F8" s="235" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="235" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="235" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="235" t="s">
-        <v>238</v>
-      </c>
-      <c r="D9" s="236"/>
-      <c r="E9" s="238" t="s">
-        <v>244</v>
-      </c>
-      <c r="F9" s="235" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="236"/>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" s="235" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" s="235" t="s">
-        <v>237</v>
-      </c>
-      <c r="D10" s="236"/>
-      <c r="H10" s="153"/>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="B11" s="235" t="s">
-        <v>233</v>
-      </c>
-      <c r="C11" s="235" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="235" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="153"/>
-      <c r="H11" s="153"/>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="235" t="s">
-        <v>234</v>
-      </c>
-      <c r="C12" s="238" t="s">
-        <v>240</v>
-      </c>
-      <c r="D12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="H12" s="153"/>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="B13" s="236"/>
-      <c r="D13" s="235" t="s">
-        <v>212</v>
-      </c>
-      <c r="F13" s="235" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="236"/>
-      <c r="D14" s="235" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="B15" s="236"/>
-      <c r="D15" s="235" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="B16" s="236"/>
-      <c r="D16" s="235" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" s="236"/>
-      <c r="D17" s="153"/>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" s="236"/>
-      <c r="D18" s="153"/>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="H19" s="239"/>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" s="154" t="s">
-        <v>192</v>
-      </c>
-      <c r="C20" s="154" t="s">
-        <v>196</v>
-      </c>
-      <c r="D20" s="155" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="155" t="s">
-        <v>255</v>
-      </c>
-      <c r="F20" s="155" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="154" t="s">
-        <v>222</v>
-      </c>
-      <c r="H20" s="155" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" s="235" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="235" t="s">
-        <v>197</v>
-      </c>
-      <c r="D21" s="235" t="s">
-        <v>200</v>
-      </c>
-      <c r="E21" s="235" t="s">
-        <v>215</v>
-      </c>
-      <c r="F21" s="235" t="s">
-        <v>216</v>
-      </c>
-      <c r="G21" s="235" t="s">
-        <v>216</v>
-      </c>
-      <c r="H21" s="153" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" s="235" t="s">
-        <v>194</v>
-      </c>
-      <c r="C22" s="235" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" s="235" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="235" t="s">
-        <v>203</v>
-      </c>
-      <c r="F22" s="235" t="s">
-        <v>217</v>
-      </c>
-      <c r="G22" s="235" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" s="235" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="235" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="235" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="235" t="s">
-        <v>204</v>
-      </c>
-      <c r="F23" s="235" t="s">
-        <v>218</v>
-      </c>
-      <c r="G23" s="235" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="C24" s="153"/>
-      <c r="D24" s="235" t="s">
-        <v>230</v>
-      </c>
-      <c r="E24" s="235" t="s">
-        <v>205</v>
-      </c>
-      <c r="F24" s="235" t="s">
-        <v>219</v>
-      </c>
-      <c r="G24" s="235" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="C25" s="235" t="s">
-        <v>200</v>
-      </c>
-      <c r="E25" s="235" t="s">
-        <v>206</v>
-      </c>
-      <c r="F25" s="235" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="E26" s="235" t="s">
-        <v>207</v>
-      </c>
-      <c r="F26" s="235" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="E27" s="235" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="E28" s="235" t="s">
-        <v>231</v>
       </c>
     </row>
   </sheetData>
